--- a/домашнее задание 4....xlsx
+++ b/домашнее задание 4....xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr codeName="Workbook________"/>
   <bookViews>
     <workbookView xWindow="180" yWindow="555" windowWidth="24240" windowHeight="13740" tabRatio="682" firstSheet="1" activeTab="1"/>
@@ -13,7 +13,7 @@
   <definedNames>
     <definedName name="Result">Sheet1!$B$2:$B$4</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="91">
   <si>
     <t>passed</t>
   </si>
@@ -333,13 +333,16 @@
   </si>
   <si>
     <t>"К сожалению, по вашему запросу клиенты не найдены".</t>
+  </si>
+  <si>
+    <t>03,02,2020</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -502,6 +505,15 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -636,7 +648,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -777,6 +789,7 @@
     <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -1170,11 +1183,8 @@
   <sheetPr codeName="Worksheet____5" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:DT61"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane xSplit="11" ySplit="7" topLeftCell="U28" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A14" zoomScale="90" zoomScaleNormal="130" zoomScaleSheetLayoutView="90" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1218,7 +1228,7 @@
       <c r="K1" s="11"/>
       <c r="L1" s="16">
         <f>COUNTIF(L$8:L$42,"failed")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M1" s="11"/>
       <c r="N1" s="16">
@@ -1263,7 +1273,7 @@
       <c r="K2" s="11"/>
       <c r="L2" s="17">
         <f>COUNTIF(L$8:L$42,"passed")</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M2" s="11"/>
       <c r="N2" s="17">
@@ -1336,7 +1346,9 @@
         <v>8</v>
       </c>
       <c r="K4" s="11"/>
-      <c r="L4" s="19"/>
+      <c r="L4" s="19" t="s">
+        <v>90</v>
+      </c>
       <c r="M4" s="11"/>
       <c r="O4" s="11"/>
       <c r="Q4" s="11"/>
@@ -1488,7 +1500,9 @@
       <c r="I8" s="21"/>
       <c r="J8" s="20"/>
       <c r="K8" s="10"/>
-      <c r="L8" s="6"/>
+      <c r="L8" s="52" t="s">
+        <v>1</v>
+      </c>
       <c r="M8" s="11"/>
       <c r="N8" s="6"/>
       <c r="O8" s="11"/>
@@ -1524,7 +1538,9 @@
       <c r="I9" s="28"/>
       <c r="J9" s="20"/>
       <c r="K9" s="10"/>
-      <c r="L9" s="6"/>
+      <c r="L9" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M9" s="11"/>
       <c r="N9" s="6"/>
       <c r="O9" s="11"/>
@@ -1560,7 +1576,9 @@
       <c r="I10" s="21"/>
       <c r="J10" s="20"/>
       <c r="K10" s="10"/>
-      <c r="L10" s="6"/>
+      <c r="L10" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M10" s="11"/>
       <c r="N10" s="6"/>
       <c r="O10" s="11"/>
@@ -1730,7 +1748,9 @@
       <c r="I12" s="21"/>
       <c r="J12" s="20"/>
       <c r="K12" s="10"/>
-      <c r="L12" s="6"/>
+      <c r="L12" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M12" s="11"/>
       <c r="N12" s="6"/>
       <c r="O12" s="11"/>
@@ -1766,7 +1786,9 @@
       <c r="I13" s="21"/>
       <c r="J13" s="20"/>
       <c r="K13" s="10"/>
-      <c r="L13" s="6"/>
+      <c r="L13" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M13" s="11"/>
       <c r="N13" s="6"/>
       <c r="O13" s="11"/>
@@ -1802,7 +1824,9 @@
       <c r="I14" s="21"/>
       <c r="J14" s="20"/>
       <c r="K14" s="10"/>
-      <c r="L14" s="6"/>
+      <c r="L14" s="52" t="s">
+        <v>1</v>
+      </c>
       <c r="M14" s="11"/>
       <c r="N14" s="6"/>
       <c r="O14" s="11"/>
@@ -1838,7 +1862,9 @@
       <c r="I15" s="21"/>
       <c r="J15" s="20"/>
       <c r="K15" s="10"/>
-      <c r="L15" s="6"/>
+      <c r="L15" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M15" s="11"/>
       <c r="N15" s="6"/>
       <c r="O15" s="11"/>
@@ -1874,7 +1900,9 @@
       <c r="I16" s="21"/>
       <c r="J16" s="20"/>
       <c r="K16" s="10"/>
-      <c r="L16" s="6"/>
+      <c r="L16" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M16" s="11"/>
       <c r="N16" s="6"/>
       <c r="O16" s="11"/>
@@ -1909,7 +1937,9 @@
       <c r="I17" s="21"/>
       <c r="J17" s="20"/>
       <c r="K17" s="10"/>
-      <c r="L17" s="6"/>
+      <c r="L17" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M17" s="11"/>
       <c r="N17" s="6"/>
       <c r="O17" s="11"/>
@@ -1945,7 +1975,9 @@
       <c r="I18" s="21"/>
       <c r="J18" s="20"/>
       <c r="K18" s="10"/>
-      <c r="L18" s="6"/>
+      <c r="L18" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M18" s="11"/>
       <c r="N18" s="6"/>
       <c r="O18" s="11"/>
@@ -1981,7 +2013,9 @@
       <c r="I19" s="21"/>
       <c r="J19" s="20"/>
       <c r="K19" s="10"/>
-      <c r="L19" s="6"/>
+      <c r="L19" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M19" s="11"/>
       <c r="N19" s="6"/>
       <c r="O19" s="11"/>
@@ -2017,7 +2051,9 @@
       <c r="I20" s="21"/>
       <c r="J20" s="20"/>
       <c r="K20" s="10"/>
-      <c r="L20" s="6"/>
+      <c r="L20" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M20" s="11"/>
       <c r="N20" s="6"/>
       <c r="O20" s="11"/>
